--- a/biology/Zoologie/Crotalus_viridis/Crotalus_viridis.xlsx
+++ b/biology/Zoologie/Crotalus_viridis/Crotalus_viridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus viridis est une espèce de serpents de la famille des Viperidae[1]. La sous-espèce Crotalus viridis viridis est également nommée Crotale des prairies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus viridis est une espèce de serpents de la famille des Viperidae. La sous-espèce Crotalus viridis viridis est également nommée Crotale des prairies.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Canada dans les provinces de l'Alberta et de la Saskatchewan ;
 aux États-Unis en Californie, dans le Montana, dans le Dakota du Sud et dans l'État de Washington ;
 au Mexique dans les États de Basse-Californie, dans le nord du Chihuahua et dans le nord-ouest du Coahuila.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent venimeux et vivipare[1] dépasse la taille de 100 cm, avec un maximum connu de 151 cm (Klauber, 1937).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent venimeux et vivipare dépasse la taille de 100 cm, avec un maximum connu de 151 cm (Klauber, 1937).
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus viridis nuntius Klauber, 1935
 Crotalus viridis viridis Rafinesque, 1818</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Klauber, 1935 : A new subspecies of Crotalus confluentus, the prairie rattlesnake.  Transactions of the San Diego Society of Natural History, vol. 8, no 13, p. 75-87 (texte intégral).
 Rafinesque, 1818 : Further accounts of discoveries in natural history in the western states. The American Monthly Magazine and Critical Review, vol. 4, no 5, p. 39-42 (texte intégral).</t>
